--- a/Ion.xlsx
+++ b/Ion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kridd\GitHub\univer\Library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1005E3B2-84E0-4F3B-879E-F711E13EAB89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0859511A-CDC8-484F-B3BD-340105E1465E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -120,13 +120,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -407,7 +406,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
@@ -422,145 +421,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="2">
         <v>44492</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>44492</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>45228</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E14" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Ion.xlsx
+++ b/Ion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kridd\GitHub\univer\Library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0859511A-CDC8-484F-B3BD-340105E1465E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C292331-989E-4433-84B8-225AF6E55870}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$4</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -406,10 +406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A2" sqref="A2:A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -488,7 +488,58 @@
         <v>13</v>
       </c>
     </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:E4" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Ion.xlsx
+++ b/Ion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kridd\GitHub\univer\Library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C292331-989E-4433-84B8-225AF6E55870}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A40AE64-8334-4403-945B-6FF3C7590C85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -108,7 +108,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -116,16 +116,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -409,7 +425,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A14"/>
+      <selection sqref="A1:E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -438,105 +454,145 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="3">
         <v>44492</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="3">
         <v>44492</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="3">
         <v>45228</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="A7" s="2">
         <v>6</v>
       </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="A8" s="2">
         <v>7</v>
       </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="A9" s="2">
         <v>8</v>
       </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="A10" s="2">
         <v>9</v>
       </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="A11" s="2">
         <v>10</v>
       </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="A12" s="2">
         <v>11</v>
       </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="A13" s="2">
         <v>12</v>
       </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="A14" s="2">
         <v>13</v>
       </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:E4" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
